--- a/biology/Botanique/Porphyrellus_porphyrosporus/Porphyrellus_porphyrosporus.xlsx
+++ b/biology/Botanique/Porphyrellus_porphyrosporus/Porphyrellus_porphyrosporus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet porphyre, Bolet à spores pourpres
-Porphyrellus porphyrosporus[1] ou Tylopilus porphyrosporus[2], de son nom vernaculaire, le Bolet porphyre ou Bolet à spores pourpres est un champignon basidiomycète de la famille des Boletaceae. Relativement répandu en Europe, surtout au nord, Il est caractérisé par ses teintes marron foncé et sa chair blanche.
+Porphyrellus porphyrosporus ou Tylopilus porphyrosporus, de son nom vernaculaire, le Bolet porphyre ou Bolet à spores pourpres est un champignon basidiomycète de la famille des Boletaceae. Relativement répandu en Europe, surtout au nord, Il est caractérisé par ses teintes marron foncé et sa chair blanche.
 </t>
         </is>
       </c>
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Porphyrellus porphyrosporus (Fr.) E.-J.Gilbert[3]. L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus porphyrosporus Fr.[3].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : bolet porphyre[4], bolet à spores pourpres[4].
-Synonymes
-Porphyrellus porphyrosporus a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Porphyrellus porphyrosporus (Fr.) E.-J.Gilbert. L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus porphyrosporus Fr..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : bolet porphyre, bolet à spores pourpres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Porphyrellus_porphyrosporus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Porphyrellus_porphyrosporus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Porphyrellus porphyrosporus a pour synonymes :
 Boletus asprellus var. longipes Fr.
 Boletus porphyrosporus var. minor Bataille &amp; Crawshay
 Boletus porphyrosporus Fr.
@@ -535,36 +584,38 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Porphyrellus_porphyrosporus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Porphyrellus_porphyrosporus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau est brun foncé, crème à gris, parfois plus clair sur les bords. D’abord convexe, il s’aplatit en grandissant et peut développer des lobes irréguliers. Il atteint 6 à 15 centimètres de diamètre à maturité.
 Une fois coupé, ses tubes deviennent bleu-vert. Ils sont ronés de pores brunes.
 Le pied, brun à gris, mesure 5 à 15 cm de haut pour 1 à 3 cm de diamètre.
-La chair est de couleur blanc à crème, parfois rosissante un peu à la coupe, d'une saveur douce ou acide[5].
+La chair est de couleur blanc à crème, parfois rosissante un peu à la coupe, d'une saveur douce ou acide.
 </t>
         </is>
       </c>
